--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="556">
   <si>
     <t>TestCases</t>
   </si>
@@ -1237,6 +1237,480 @@
   </si>
   <si>
     <t>IDEP671453618821VX1Y</t>
+  </si>
+  <si>
+    <t>8078304205</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>SatishMammen79844@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-18</t>
+  </si>
+  <si>
+    <t>265342962764904</t>
+  </si>
+  <si>
+    <t>a484c49693979c3f</t>
+  </si>
+  <si>
+    <t>623068472284045</t>
+  </si>
+  <si>
+    <t>6020745954</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>KailashSharaf60509@example.net</t>
+  </si>
+  <si>
+    <t>1990-02-27</t>
+  </si>
+  <si>
+    <t>302628156311055</t>
+  </si>
+  <si>
+    <t>7a495d01a0b4ce38</t>
+  </si>
+  <si>
+    <t>683396734437391</t>
+  </si>
+  <si>
+    <t>9769909979</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>AzharNarayan26764@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-18</t>
+  </si>
+  <si>
+    <t>272367152640292</t>
+  </si>
+  <si>
+    <t>9085832e41c38edb</t>
+  </si>
+  <si>
+    <t>781631684290171</t>
+  </si>
+  <si>
+    <t>IDEP716433261182KR5T</t>
+  </si>
+  <si>
+    <t>7488740489</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>AbhishekGuha54494@example.net</t>
+  </si>
+  <si>
+    <t>1995-11-15</t>
+  </si>
+  <si>
+    <t>817690416330505</t>
+  </si>
+  <si>
+    <t>44478aa7c829599c</t>
+  </si>
+  <si>
+    <t>970111117369844</t>
+  </si>
+  <si>
+    <t>IDEP476138187456R2G9</t>
+  </si>
+  <si>
+    <t>7404609871</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>SumitSeth17725@example.net</t>
+  </si>
+  <si>
+    <t>1987-12-18</t>
+  </si>
+  <si>
+    <t>500528812821523</t>
+  </si>
+  <si>
+    <t>4ab2c8f46d2414e9</t>
+  </si>
+  <si>
+    <t>970299841341955</t>
+  </si>
+  <si>
+    <t>IDEP476143821928ZIEK</t>
+  </si>
+  <si>
+    <t>9809318623</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>ManojKoshy75764@example.net</t>
+  </si>
+  <si>
+    <t>1978-12-07</t>
+  </si>
+  <si>
+    <t>349242339605592</t>
+  </si>
+  <si>
+    <t>42e9876e18fe9488</t>
+  </si>
+  <si>
+    <t>003307486934629</t>
+  </si>
+  <si>
+    <t>IDEP76144316848168O3</t>
+  </si>
+  <si>
+    <t>9751402884</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>JohnBrar47015@example.net</t>
+  </si>
+  <si>
+    <t>1976-05-24</t>
+  </si>
+  <si>
+    <t>730076243791792</t>
+  </si>
+  <si>
+    <t>ec9cae8aec983278</t>
+  </si>
+  <si>
+    <t>001246220647349</t>
+  </si>
+  <si>
+    <t>9006127361</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>MahmoodChaudry20085@example.net</t>
+  </si>
+  <si>
+    <t>1986-07-22</t>
+  </si>
+  <si>
+    <t>437372289863488</t>
+  </si>
+  <si>
+    <t>30478da519f21132</t>
+  </si>
+  <si>
+    <t>946790169188946</t>
+  </si>
+  <si>
+    <t>IDEP1647433511331W56</t>
+  </si>
+  <si>
+    <t>7328514476</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>GauravChohan87626@example.net</t>
+  </si>
+  <si>
+    <t>1980-04-05</t>
+  </si>
+  <si>
+    <t>056365677628240</t>
+  </si>
+  <si>
+    <t>098e65ab5e08af12</t>
+  </si>
+  <si>
+    <t>218223274365986</t>
+  </si>
+  <si>
+    <t>IDEP764143432728R57N</t>
+  </si>
+  <si>
+    <t>7428141634</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>QaboolChowdhury99871@example.net</t>
+  </si>
+  <si>
+    <t>1975-04-13</t>
+  </si>
+  <si>
+    <t>399563475726697</t>
+  </si>
+  <si>
+    <t>5f8b8abaec25371e</t>
+  </si>
+  <si>
+    <t>605004646536954</t>
+  </si>
+  <si>
+    <t>IDEP4716435696587A1U</t>
+  </si>
+  <si>
+    <t>8861008385</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>ChinmayGoel17544@example.net</t>
+  </si>
+  <si>
+    <t>1991-12-14</t>
+  </si>
+  <si>
+    <t>953895075774497</t>
+  </si>
+  <si>
+    <t>c3c7d3a4e14ba171</t>
+  </si>
+  <si>
+    <t>361360952120310</t>
+  </si>
+  <si>
+    <t>IDEP467143921947NEU8</t>
+  </si>
+  <si>
+    <t>7037367860</t>
+  </si>
+  <si>
+    <t>HassanShere44878@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-27</t>
+  </si>
+  <si>
+    <t>037732738878078</t>
+  </si>
+  <si>
+    <t>fd870f87461c0b12</t>
+  </si>
+  <si>
+    <t>476731232953518</t>
+  </si>
+  <si>
+    <t>IDEP617444154853D5MP</t>
+  </si>
+  <si>
+    <t>8735269776</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>AmritMannan30343@example.net</t>
+  </si>
+  <si>
+    <t>1971-03-31</t>
+  </si>
+  <si>
+    <t>568980227063861</t>
+  </si>
+  <si>
+    <t>e134cee2c37a5108</t>
+  </si>
+  <si>
+    <t>821901501820068</t>
+  </si>
+  <si>
+    <t>9144664233</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>AadilDave43322@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-23</t>
+  </si>
+  <si>
+    <t>434562508129314</t>
+  </si>
+  <si>
+    <t>cbba5f5b050bfdc5</t>
+  </si>
+  <si>
+    <t>589773282313890</t>
+  </si>
+  <si>
+    <t>7840422271</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>TabeedSoman92943@example.net</t>
+  </si>
+  <si>
+    <t>1973-06-01</t>
+  </si>
+  <si>
+    <t>738224694436796</t>
+  </si>
+  <si>
+    <t>33bfa0aaadf37b0b</t>
+  </si>
+  <si>
+    <t>408012050344509</t>
+  </si>
+  <si>
+    <t>IDEP167445839144HJ39</t>
+  </si>
+  <si>
+    <t>9028560309</t>
+  </si>
+  <si>
+    <t>WafaNarayan41299@example.net</t>
+  </si>
+  <si>
+    <t>1985-10-24</t>
+  </si>
+  <si>
+    <t>128267053162709</t>
+  </si>
+  <si>
+    <t>507c50006e7b90b0</t>
+  </si>
+  <si>
+    <t>090678293482380</t>
+  </si>
+  <si>
+    <t>6001455361</t>
+  </si>
+  <si>
+    <t>RashidChawla85968@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-14</t>
+  </si>
+  <si>
+    <t>440192756429984</t>
+  </si>
+  <si>
+    <t>4a56c3272885e2b2</t>
+  </si>
+  <si>
+    <t>511064908360413</t>
+  </si>
+  <si>
+    <t>8932562450</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>PreetKeer48549@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-28</t>
+  </si>
+  <si>
+    <t>237690454533020</t>
+  </si>
+  <si>
+    <t>2af75aaab30dd8d9</t>
+  </si>
+  <si>
+    <t>285780172576905</t>
+  </si>
+  <si>
+    <t>IDEP764118974924K59R</t>
+  </si>
+  <si>
+    <t>9226915073</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>SaiGeorge15464@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-05</t>
+  </si>
+  <si>
+    <t>559570310557878</t>
+  </si>
+  <si>
+    <t>1df390767d20a610</t>
+  </si>
+  <si>
+    <t>708137851104310</t>
+  </si>
+  <si>
+    <t>IDEP467123182988JW3H</t>
+  </si>
+  <si>
+    <t>9761868784</t>
+  </si>
+  <si>
+    <t>Amolika</t>
+  </si>
+  <si>
+    <t>NawabUsman51551@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-22</t>
+  </si>
+  <si>
+    <t>927309974545431</t>
+  </si>
+  <si>
+    <t>392c83c654e01e56</t>
+  </si>
+  <si>
+    <t>109779723712500</t>
+  </si>
+  <si>
+    <t>IDEP716559452868IRGJ</t>
+  </si>
+  <si>
+    <t>8083209470</t>
+  </si>
+  <si>
+    <t>Trishana</t>
+  </si>
+  <si>
+    <t>KushalMangal98878@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-20</t>
+  </si>
+  <si>
+    <t>733468083780075</t>
+  </si>
+  <si>
+    <t>34a80ae9e2e51a1d</t>
+  </si>
+  <si>
+    <t>451003911281267</t>
+  </si>
+  <si>
+    <t>IDEP176564484675COUP</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1852,7 +2326,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2301,16 +2775,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2529,13 +3003,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="F2" t="s">
-        <v>393</v>
+        <v>551</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3082,10 +3556,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3097,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3106,10 +3580,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="M2" t="n">
-        <v>4221623.0</v>
+        <v>4224451.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3265,7 +3739,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3282,7 +3756,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3299,7 +3773,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3316,7 +3790,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3333,7 +3807,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3419,7 +3893,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3663,7 +4137,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3878,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>549</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3961,7 +4435,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4259,7 +4733,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4279,7 +4753,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4299,7 +4773,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4319,7 +4793,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4339,7 +4813,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4359,7 +4833,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4379,7 +4853,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="571">
   <si>
     <t>TestCases</t>
   </si>
@@ -1711,6 +1711,51 @@
   </si>
   <si>
     <t>IDEP176564484675COUP</t>
+  </si>
+  <si>
+    <t>9683016336</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>OwaisMahabir93825@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-23</t>
+  </si>
+  <si>
+    <t>436073676657225</t>
+  </si>
+  <si>
+    <t>d30e3f82ee291aff</t>
+  </si>
+  <si>
+    <t>761875345603157</t>
+  </si>
+  <si>
+    <t>8991998571</t>
+  </si>
+  <si>
+    <t>Sukriti</t>
+  </si>
+  <si>
+    <t>GiaanLala85142@example.net</t>
+  </si>
+  <si>
+    <t>1974-06-09</t>
+  </si>
+  <si>
+    <t>986518811082105</t>
+  </si>
+  <si>
+    <t>18645f7711b76076</t>
+  </si>
+  <si>
+    <t>967882454111958</t>
+  </si>
+  <si>
+    <t>IDEP176577983258A8FS</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2326,7 +2371,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2775,16 +2820,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3003,13 +3048,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3556,10 +3601,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3571,7 +3616,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3580,10 +3625,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="M2" t="n">
-        <v>4224451.0</v>
+        <v>4224662.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3739,7 +3784,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3756,7 +3801,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3773,7 +3818,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3790,7 +3835,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3807,7 +3852,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3893,7 +3938,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4137,7 +4182,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4352,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4435,7 +4480,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4733,7 +4778,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4753,7 +4798,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4773,7 +4818,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4793,7 +4838,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4813,7 +4858,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4833,7 +4878,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4853,7 +4898,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="579">
   <si>
     <t>TestCases</t>
   </si>
@@ -1756,6 +1756,30 @@
   </si>
   <si>
     <t>IDEP176577983258A8FS</t>
+  </si>
+  <si>
+    <t>8834464623</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>LakshmiTripathi94523@example.net</t>
+  </si>
+  <si>
+    <t>1977-03-08</t>
+  </si>
+  <si>
+    <t>328482586527140</t>
+  </si>
+  <si>
+    <t>a48f1723ca142919</t>
+  </si>
+  <si>
+    <t>234176473588693</t>
+  </si>
+  <si>
+    <t>IDEP561798285824J8LI</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2371,7 +2395,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2820,16 +2844,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3048,13 +3072,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3601,10 +3625,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3616,7 +3640,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3625,10 +3649,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="M2" t="n">
-        <v>4224662.0</v>
+        <v>4224875.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3784,7 +3808,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3801,7 +3825,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3818,7 +3842,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3835,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3852,7 +3876,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3938,7 +3962,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4182,7 +4206,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4397,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4480,7 +4504,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4778,7 +4802,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4798,7 +4822,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4818,7 +4842,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4838,7 +4862,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4858,7 +4882,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4878,7 +4902,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4898,7 +4922,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="608">
   <si>
     <t>TestCases</t>
   </si>
@@ -1780,6 +1780,93 @@
   </si>
   <si>
     <t>IDEP561798285824J8LI</t>
+  </si>
+  <si>
+    <t>9354065904</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>AnimeshKorpal46254@example.net</t>
+  </si>
+  <si>
+    <t>1983-06-23</t>
+  </si>
+  <si>
+    <t>721276743417044</t>
+  </si>
+  <si>
+    <t>cdd6d33fe4279528</t>
+  </si>
+  <si>
+    <t>262946215220218</t>
+  </si>
+  <si>
+    <t>8630938874</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>AlexJoshi47202@example.net</t>
+  </si>
+  <si>
+    <t>1979-08-16</t>
+  </si>
+  <si>
+    <t>522106252984434</t>
+  </si>
+  <si>
+    <t>ad86e0b0d60e52e8</t>
+  </si>
+  <si>
+    <t>069502483096387</t>
+  </si>
+  <si>
+    <t>9145162590</t>
+  </si>
+  <si>
+    <t>BharatGulati41745@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-26</t>
+  </si>
+  <si>
+    <t>187818796220531</t>
+  </si>
+  <si>
+    <t>60b750beeb0a56e8</t>
+  </si>
+  <si>
+    <t>111564254337307</t>
+  </si>
+  <si>
+    <t>IDEP16574292468798OA</t>
+  </si>
+  <si>
+    <t>8176975181</t>
+  </si>
+  <si>
+    <t>Ragini</t>
+  </si>
+  <si>
+    <t>TaahidKulkarni16585@example.net</t>
+  </si>
+  <si>
+    <t>1995-10-11</t>
+  </si>
+  <si>
+    <t>923057337774255</t>
+  </si>
+  <si>
+    <t>801a7b0b0f2b03be</t>
+  </si>
+  <si>
+    <t>394489672050241</t>
+  </si>
+  <si>
+    <t>IDEP675143396471EZ1U</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2395,7 +2482,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2844,16 +2931,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3072,13 +3159,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="F2" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3625,10 +3712,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3640,7 +3727,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3649,10 +3736,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="M2" t="n">
-        <v>4224875.0</v>
+        <v>4225057.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3808,7 +3895,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3825,7 +3912,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3842,7 +3929,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3859,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3876,7 +3963,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3962,7 +4049,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4206,7 +4293,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4421,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4504,7 +4591,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4802,7 +4889,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4822,7 +4909,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4842,7 +4929,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4862,7 +4949,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4882,7 +4969,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4902,7 +4989,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4922,7 +5009,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="632">
   <si>
     <t>TestCases</t>
   </si>
@@ -1867,6 +1867,78 @@
   </si>
   <si>
     <t>IDEP675143396471EZ1U</t>
+  </si>
+  <si>
+    <t>7422190115</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>JagatDeshpande59563@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-23</t>
+  </si>
+  <si>
+    <t>270076617034668</t>
+  </si>
+  <si>
+    <t>d0cf6a3adbbdc955</t>
+  </si>
+  <si>
+    <t>841898012414967</t>
+  </si>
+  <si>
+    <t>IDEP715646623845PME3</t>
+  </si>
+  <si>
+    <t>8330398923</t>
+  </si>
+  <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>HanumanBalasubramanian20313@example.net</t>
+  </si>
+  <si>
+    <t>1984-02-25</t>
+  </si>
+  <si>
+    <t>342193437798655</t>
+  </si>
+  <si>
+    <t>e0a89d6a5089baa9</t>
+  </si>
+  <si>
+    <t>765635195681869</t>
+  </si>
+  <si>
+    <t>IDEP167547678588AVLU</t>
+  </si>
+  <si>
+    <t>8534451761</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>FardeenBandi13043@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-24</t>
+  </si>
+  <si>
+    <t>456825794404532</t>
+  </si>
+  <si>
+    <t>923180f1159a6103</t>
+  </si>
+  <si>
+    <t>745899640434945</t>
+  </si>
+  <si>
+    <t>IDEP675148527436T9HR</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2482,7 +2554,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2931,16 +3003,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="C2" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3159,13 +3231,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E2" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F2" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3712,10 +3784,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="E2" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3727,7 +3799,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3736,10 +3808,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="M2" t="n">
-        <v>4225057.0</v>
+        <v>4225180.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3895,7 +3967,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3912,7 +3984,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3929,7 +4001,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3946,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3963,7 +4035,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4049,7 +4121,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4293,7 +4365,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4508,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4591,7 +4663,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4889,7 +4961,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4909,7 +4981,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4929,7 +5001,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4949,7 +5021,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4969,7 +5041,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4989,7 +5061,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5009,7 +5081,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="679">
   <si>
     <t>TestCases</t>
   </si>
@@ -1939,6 +1939,147 @@
   </si>
   <si>
     <t>IDEP675148527436T9HR</t>
+  </si>
+  <si>
+    <t>8212971721</t>
+  </si>
+  <si>
+    <t>YashSodhani94493@example.net</t>
+  </si>
+  <si>
+    <t>1988-11-11</t>
+  </si>
+  <si>
+    <t>032633784521403</t>
+  </si>
+  <si>
+    <t>24301f23a7e10cc1</t>
+  </si>
+  <si>
+    <t>530586332454716</t>
+  </si>
+  <si>
+    <t>IDEP517668558528WM4X</t>
+  </si>
+  <si>
+    <t>9757689917</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>GovindPalla33646@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-07</t>
+  </si>
+  <si>
+    <t>018991449860881</t>
+  </si>
+  <si>
+    <t>57caa549dc98439d</t>
+  </si>
+  <si>
+    <t>425646126460432</t>
+  </si>
+  <si>
+    <t>IDEP576161999258ASTO</t>
+  </si>
+  <si>
+    <t>8429164778</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>AzharSheth39489@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-13</t>
+  </si>
+  <si>
+    <t>669426111548110</t>
+  </si>
+  <si>
+    <t>a8a6e4297763fbd5</t>
+  </si>
+  <si>
+    <t>430074296470797</t>
+  </si>
+  <si>
+    <t>IDEP517662688748HQNK</t>
+  </si>
+  <si>
+    <t>7688549842</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>QadimGrewal31654@example.net</t>
+  </si>
+  <si>
+    <t>1979-08-28</t>
+  </si>
+  <si>
+    <t>413778488168453</t>
+  </si>
+  <si>
+    <t>652ef2437e343046</t>
+  </si>
+  <si>
+    <t>810625416356453</t>
+  </si>
+  <si>
+    <t>IDEP567162884814LWD2</t>
+  </si>
+  <si>
+    <t>8328640793</t>
+  </si>
+  <si>
+    <t>Riddhi</t>
+  </si>
+  <si>
+    <t>BijoyBalasubramanian65145@example.net</t>
+  </si>
+  <si>
+    <t>1990-06-06</t>
+  </si>
+  <si>
+    <t>039295475473725</t>
+  </si>
+  <si>
+    <t>4ffe67663f9776b7</t>
+  </si>
+  <si>
+    <t>259235015202781</t>
+  </si>
+  <si>
+    <t>IDEP675163269835R3U8</t>
+  </si>
+  <si>
+    <t>8306979738</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>BaberMadan98845@example.net</t>
+  </si>
+  <si>
+    <t>1988-02-25</t>
+  </si>
+  <si>
+    <t>208025574655350</t>
+  </si>
+  <si>
+    <t>b14ef9c0efa8aca1</t>
+  </si>
+  <si>
+    <t>704365037790280</t>
+  </si>
+  <si>
+    <t>IDEP615764448485WY1K</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2554,7 +2695,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3003,16 +3144,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3231,13 +3372,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="E2" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="F2" t="s">
-        <v>627</v>
+        <v>674</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3784,10 +3925,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3799,7 +3940,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3808,10 +3949,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="M2" t="n">
-        <v>4225180.0</v>
+        <v>4225419.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3967,7 +4108,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3984,7 +4125,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4001,7 +4142,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4018,7 +4159,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4035,7 +4176,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4121,7 +4262,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4365,7 +4506,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4580,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4663,7 +4804,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4961,7 +5102,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4981,7 +5122,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5001,7 +5142,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5021,7 +5162,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5041,7 +5182,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5061,7 +5202,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5081,7 +5222,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="797">
   <si>
     <t>TestCases</t>
   </si>
@@ -2080,6 +2080,360 @@
   </si>
   <si>
     <t>IDEP615764448485WY1K</t>
+  </si>
+  <si>
+    <t>7842939844</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>TabeedPandya55509@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-08</t>
+  </si>
+  <si>
+    <t>430324987654260</t>
+  </si>
+  <si>
+    <t>1c8542cf26ce91d2</t>
+  </si>
+  <si>
+    <t>108180157467052</t>
+  </si>
+  <si>
+    <t>6422299897</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>AlexSaha88612@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-11</t>
+  </si>
+  <si>
+    <t>482284655945712</t>
+  </si>
+  <si>
+    <t>1cec23141516476f</t>
+  </si>
+  <si>
+    <t>161461646403633</t>
+  </si>
+  <si>
+    <t>8712058778</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>SureshSaha40157@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-29</t>
+  </si>
+  <si>
+    <t>014334000769668</t>
+  </si>
+  <si>
+    <t>fe530779de0d1f6c</t>
+  </si>
+  <si>
+    <t>121195326515964</t>
+  </si>
+  <si>
+    <t>7514477625</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>MustafaJani13159@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-27</t>
+  </si>
+  <si>
+    <t>124196459567225</t>
+  </si>
+  <si>
+    <t>93d495fbb622d7b8</t>
+  </si>
+  <si>
+    <t>773924368753881</t>
+  </si>
+  <si>
+    <t>7659196404</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>DhanushNaik96098@example.net</t>
+  </si>
+  <si>
+    <t>1976-09-25</t>
+  </si>
+  <si>
+    <t>145456024449787</t>
+  </si>
+  <si>
+    <t>8ba62d7fcfbf1d8e</t>
+  </si>
+  <si>
+    <t>796211909853401</t>
+  </si>
+  <si>
+    <t>9908219279</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>MohitHari40329@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-07</t>
+  </si>
+  <si>
+    <t>871539623071639</t>
+  </si>
+  <si>
+    <t>b077505aad72323b</t>
+  </si>
+  <si>
+    <t>897252758875325</t>
+  </si>
+  <si>
+    <t>6232935156</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>WahidBhandari92025@example.net</t>
+  </si>
+  <si>
+    <t>1992-03-18</t>
+  </si>
+  <si>
+    <t>822003451670434</t>
+  </si>
+  <si>
+    <t>837fba03615f0e98</t>
+  </si>
+  <si>
+    <t>746228688959432</t>
+  </si>
+  <si>
+    <t>7537313986</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>RameshGanesh62561@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-02</t>
+  </si>
+  <si>
+    <t>074726712845669</t>
+  </si>
+  <si>
+    <t>105ed1dce7032044</t>
+  </si>
+  <si>
+    <t>742436483406509</t>
+  </si>
+  <si>
+    <t>IDEP576158854419M1UN</t>
+  </si>
+  <si>
+    <t>9874602462</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>JamshedSing52488@example.net</t>
+  </si>
+  <si>
+    <t>1987-11-26</t>
+  </si>
+  <si>
+    <t>017053337894851</t>
+  </si>
+  <si>
+    <t>eac0a8344a944efb</t>
+  </si>
+  <si>
+    <t>586586526680145</t>
+  </si>
+  <si>
+    <t>IDEP657151354546CJ4I</t>
+  </si>
+  <si>
+    <t>7036261652</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>AtulReddy97628@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-18</t>
+  </si>
+  <si>
+    <t>599015623542961</t>
+  </si>
+  <si>
+    <t>b5a7fb5862e3096b</t>
+  </si>
+  <si>
+    <t>105927270889130</t>
+  </si>
+  <si>
+    <t>IDEP176516686378RTE3</t>
+  </si>
+  <si>
+    <t>9367888529</t>
+  </si>
+  <si>
+    <t>Juhi</t>
+  </si>
+  <si>
+    <t>HrishikeshShenoy24994@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-23</t>
+  </si>
+  <si>
+    <t>159219528346096</t>
+  </si>
+  <si>
+    <t>01c422a5b593da1a</t>
+  </si>
+  <si>
+    <t>810360244740765</t>
+  </si>
+  <si>
+    <t>IDEP657118242418CJA1</t>
+  </si>
+  <si>
+    <t>7359291343</t>
+  </si>
+  <si>
+    <t>RashidToor60105@example.net</t>
+  </si>
+  <si>
+    <t>1987-06-10</t>
+  </si>
+  <si>
+    <t>697882097875636</t>
+  </si>
+  <si>
+    <t>6b4dd0d4daa3f908</t>
+  </si>
+  <si>
+    <t>044106948598191</t>
+  </si>
+  <si>
+    <t>IDEP165719193599WCN7</t>
+  </si>
+  <si>
+    <t>6012199512</t>
+  </si>
+  <si>
+    <t>RajendraSomani77770@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-10</t>
+  </si>
+  <si>
+    <t>080794050398792</t>
+  </si>
+  <si>
+    <t>169fd1d374e65db2</t>
+  </si>
+  <si>
+    <t>371514048703996</t>
+  </si>
+  <si>
+    <t>IDEP567124284686OHWV</t>
+  </si>
+  <si>
+    <t>8573753955</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>TarunInani67196@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-20</t>
+  </si>
+  <si>
+    <t>543861534235998</t>
+  </si>
+  <si>
+    <t>1161a0cb9db4d58c</t>
+  </si>
+  <si>
+    <t>809431023576135</t>
+  </si>
+  <si>
+    <t>IDEP715629417377UMD3</t>
+  </si>
+  <si>
+    <t>8652606971</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>SumitLall62835@example.net</t>
+  </si>
+  <si>
+    <t>1978-01-19</t>
+  </si>
+  <si>
+    <t>328665785395778</t>
+  </si>
+  <si>
+    <t>437366215a253b91</t>
+  </si>
+  <si>
+    <t>752199690245196</t>
+  </si>
+  <si>
+    <t>IDEP576131383281DCZE</t>
+  </si>
+  <si>
+    <t>8986586369</t>
+  </si>
+  <si>
+    <t>JamshedSahota17195@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-03</t>
+  </si>
+  <si>
+    <t>666680314578281</t>
+  </si>
+  <si>
+    <t>0b63f7487d3e004e</t>
+  </si>
+  <si>
+    <t>074295887475413</t>
+  </si>
+  <si>
+    <t>IDEP157633789828K74B</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2695,7 +3049,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3144,16 +3498,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
-        <v>677</v>
+        <v>795</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3372,13 +3726,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>791</v>
       </c>
       <c r="F2" t="s">
-        <v>674</v>
+        <v>792</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3925,10 +4279,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>791</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3940,7 +4294,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3949,10 +4303,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="M2" t="n">
-        <v>4225419.0</v>
+        <v>4233497.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4108,7 +4462,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4125,7 +4479,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4142,7 +4496,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4159,7 +4513,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4176,7 +4530,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4262,7 +4616,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4506,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4721,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4804,7 +5158,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5102,7 +5456,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5122,7 +5476,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5142,7 +5496,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5162,7 +5516,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5182,7 +5536,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5202,7 +5556,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5222,7 +5576,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>678</v>
+        <v>796</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="897">
   <si>
     <t>TestCases</t>
   </si>
@@ -2434,6 +2434,306 @@
   </si>
   <si>
     <t>IDEP157633789828K74B</t>
+  </si>
+  <si>
+    <t>6817621548</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>GiaanBoase18616@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-12</t>
+  </si>
+  <si>
+    <t>131079649319304</t>
+  </si>
+  <si>
+    <t>1611a7d1aec2b51e</t>
+  </si>
+  <si>
+    <t>135017691030177</t>
+  </si>
+  <si>
+    <t>7469471260</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>NareshArora59127@example.net</t>
+  </si>
+  <si>
+    <t>1973-04-21</t>
+  </si>
+  <si>
+    <t>479801562736366</t>
+  </si>
+  <si>
+    <t>71426555cf1ac181</t>
+  </si>
+  <si>
+    <t>792398575144407</t>
+  </si>
+  <si>
+    <t>7731892163</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>AlexAgarwal38275@example.net</t>
+  </si>
+  <si>
+    <t>1978-10-16</t>
+  </si>
+  <si>
+    <t>815180152965435</t>
+  </si>
+  <si>
+    <t>a1a577c08af71c9a</t>
+  </si>
+  <si>
+    <t>836519251180245</t>
+  </si>
+  <si>
+    <t>IDEP157684282212LCTF</t>
+  </si>
+  <si>
+    <t>7678738730</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>DevendraKorpal92998@example.net</t>
+  </si>
+  <si>
+    <t>1985-02-15</t>
+  </si>
+  <si>
+    <t>656418897657855</t>
+  </si>
+  <si>
+    <t>48de56934d29a404</t>
+  </si>
+  <si>
+    <t>687859728214320</t>
+  </si>
+  <si>
+    <t>IDEP7165895891191KAW</t>
+  </si>
+  <si>
+    <t>9719839630</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>FaisalKakar90737@example.net</t>
+  </si>
+  <si>
+    <t>1993-02-24</t>
+  </si>
+  <si>
+    <t>222385400704281</t>
+  </si>
+  <si>
+    <t>a5ad85b430dc5ad9</t>
+  </si>
+  <si>
+    <t>252864133387757</t>
+  </si>
+  <si>
+    <t>8903792325</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>JobinKhalsa75466@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-02</t>
+  </si>
+  <si>
+    <t>570148455538089</t>
+  </si>
+  <si>
+    <t>8fdeee009c7577b6</t>
+  </si>
+  <si>
+    <t>584719428496565</t>
+  </si>
+  <si>
+    <t>IDEP156716514761GMA2</t>
+  </si>
+  <si>
+    <t>6893709186</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>JohnRanganathan41406@example.net</t>
+  </si>
+  <si>
+    <t>1974-08-12</t>
+  </si>
+  <si>
+    <t>130594942527461</t>
+  </si>
+  <si>
+    <t>6271d53320261bef</t>
+  </si>
+  <si>
+    <t>352187986801636</t>
+  </si>
+  <si>
+    <t>IDEP576116849848F2CQ</t>
+  </si>
+  <si>
+    <t>9878340682</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>AayushmanBadami16943@example.net</t>
+  </si>
+  <si>
+    <t>1978-07-13</t>
+  </si>
+  <si>
+    <t>088499194103601</t>
+  </si>
+  <si>
+    <t>9cb889720cf363eb</t>
+  </si>
+  <si>
+    <t>401412198261150</t>
+  </si>
+  <si>
+    <t>IDEP765117135224GDTS</t>
+  </si>
+  <si>
+    <t>8768883065</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>MarloKabra59280@example.net</t>
+  </si>
+  <si>
+    <t>1974-10-14</t>
+  </si>
+  <si>
+    <t>391408288412416</t>
+  </si>
+  <si>
+    <t>b00093e44d883a7b</t>
+  </si>
+  <si>
+    <t>285237861846602</t>
+  </si>
+  <si>
+    <t>IDEP157618881388JIUA</t>
+  </si>
+  <si>
+    <t>9202975086</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>RahimDar64889@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-15</t>
+  </si>
+  <si>
+    <t>135933924803935</t>
+  </si>
+  <si>
+    <t>6cb3b2593c34e55b</t>
+  </si>
+  <si>
+    <t>640540532025310</t>
+  </si>
+  <si>
+    <t>IDEP657119181541RAUP</t>
+  </si>
+  <si>
+    <t>7365639418</t>
+  </si>
+  <si>
+    <t>GhalibMaheshwari32951@example.net</t>
+  </si>
+  <si>
+    <t>1979-07-08</t>
+  </si>
+  <si>
+    <t>407789108168664</t>
+  </si>
+  <si>
+    <t>9647b3c563dabd00</t>
+  </si>
+  <si>
+    <t>715392699556079</t>
+  </si>
+  <si>
+    <t>IDEP5176287165836Q53</t>
+  </si>
+  <si>
+    <t>7708715391</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>SiddharthBasu39424@example.net</t>
+  </si>
+  <si>
+    <t>1970-05-07</t>
+  </si>
+  <si>
+    <t>841544582808291</t>
+  </si>
+  <si>
+    <t>901d9b174c248e44</t>
+  </si>
+  <si>
+    <t>910064345366830</t>
+  </si>
+  <si>
+    <t>IDEP657121737881KU6S</t>
+  </si>
+  <si>
+    <t>9143550033</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>WafiqHayre12467@example.net</t>
+  </si>
+  <si>
+    <t>1988-02-05</t>
+  </si>
+  <si>
+    <t>731511704621285</t>
+  </si>
+  <si>
+    <t>206bdbef0efa6973</t>
+  </si>
+  <si>
+    <t>516151350822282</t>
+  </si>
+  <si>
+    <t>IDEP761522748585RMDB</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3049,7 +3349,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3498,16 +3798,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="C2" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3726,13 +4026,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>890</v>
       </c>
       <c r="E2" t="s">
-        <v>791</v>
+        <v>891</v>
       </c>
       <c r="F2" t="s">
-        <v>792</v>
+        <v>892</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4279,10 +4579,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>791</v>
+        <v>891</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4294,7 +4594,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4303,10 +4603,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="M2" t="n">
-        <v>4233497.0</v>
+        <v>4234176.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4462,7 +4762,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4479,7 +4779,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4496,7 +4796,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4513,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4530,7 +4830,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4616,7 +4916,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4860,7 +5160,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -5075,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>890</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -5158,7 +5458,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5456,7 +5756,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5476,7 +5776,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5496,7 +5796,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5516,7 +5816,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5536,7 +5836,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5556,7 +5856,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5576,7 +5876,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="C8">
         <v>725</v>
